--- a/uploads/Logistic Regression - Credit Card Transaction Anomaly Detection/Logistic Regression - Credit Card Transaction Anomaly Detection_custom_ml_report.xlsx
+++ b/uploads/Logistic Regression - Credit Card Transaction Anomaly Detection/Logistic Regression - Credit Card Transaction Anomaly Detection_custom_ml_report.xlsx
@@ -15037,7 +15037,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-03T07:16:11.921005</t>
+          <t>2025-07-06T22:20:17.547827</t>
         </is>
       </c>
     </row>
